--- a/media/genotype_prelim.xlsx
+++ b/media/genotype_prelim.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Well</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Well ID</t>
+  </si>
+  <si>
+    <t>Allele 1 Color</t>
+  </si>
+  <si>
+    <t>Quality(%) Call</t>
+  </si>
+  <si>
+    <t>Call Method</t>
   </si>
 </sst>
 </file>
@@ -407,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +513,41 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
